--- a/biology/Botanique/Lupin_polyphylle/Lupin_polyphylle.xlsx
+++ b/biology/Botanique/Lupin_polyphylle/Lupin_polyphylle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Lupin des jardins ou Lupin à folioles nombreuses (Lupinus polyphyllus) est une espèce de lupins originaire de l’ouest de l’Amérique du Nord.
 </t>
@@ -511,7 +523,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante est présente naturellement à l’ouest de l’Amérique du Nord, du sud de l'Alaska et de la Colombie-Britannique à l'Alberta et au Wyoming, jusqu'au sud de la Californie et de l'Utah. Elle se rencontre le long des routes, elle est commune au bord des ruisseaux et préfère les milieux humides.
 La plante a été introduite, en tant que plante ornementale, en Europe au XIXe siècle. Elle se cultive dans les jardins, mais a été largement remplacée par le lupin de Russell, avec lequel elle est très souvent confondue.
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante vivace peut atteindre une taille comprise entre 60 centimètres et 1 mètre.
 La fleur est bleu-mauve, mais parfois rose à blanche.
@@ -576,9 +592,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (25 mai 2013)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (25 mai 2013) (Attention liste brute contenant possiblement des synonymes) :
 Lupinus polyphyllus subsp. arcticus (S. Watson) L.Ll. Phillips
 Lupinus polyphyllus subsp. bernardinus (Abrams ex C.P. Sm.) Munz
 Lupinus polyphyllus subsp. polyphyllus
